--- a/test cases/test_case_3.xlsx
+++ b/test cases/test_case_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20141\OneDrive\Bureaublad\MSc_1\Operations Optimisation\Assignment\AE4441-16_Assignment\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace Engineering\Master C&amp;S year 1\AE4441-16 Operations Optimisation\AE4441-16_Assignment\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19290B08-5B71-4479-BFBA-2F6EAFB507D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D5509-6269-4A82-AD97-AAA2CE72B4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,28 @@
     <sheet name="Node Properties" sheetId="2" r:id="rId2"/>
     <sheet name="Machine Properties" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>From</t>
   </si>
@@ -57,6 +68,9 @@
   </si>
   <si>
     <t>End Depot</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -104,14 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,8 +428,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -429,8 +442,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -443,8 +456,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -457,8 +470,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -471,8 +484,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -485,8 +498,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -499,8 +512,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -513,8 +526,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -527,8 +540,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -771,10 +784,10 @@
       <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>89000</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>2</v>
       </c>
     </row>
@@ -799,10 +812,10 @@
       <c r="B29">
         <v>8</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>89000</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
@@ -816,7 +829,7 @@
       <c r="C30">
         <v>50000</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>76</v>
       </c>
     </row>
@@ -830,21 +843,21 @@
       <c r="C31">
         <v>10000</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
         <v>89000</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>7</v>
       </c>
     </row>
@@ -858,7 +871,7 @@
       <c r="C33">
         <v>12000</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>4</v>
       </c>
     </row>
@@ -872,7 +885,7 @@
       <c r="C34">
         <v>50000</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>5</v>
       </c>
     </row>
@@ -953,10 +966,10 @@
       <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>89000</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>3</v>
       </c>
     </row>
@@ -984,7 +997,7 @@
       <c r="C42">
         <v>70000</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>9</v>
       </c>
     </row>
@@ -998,7 +1011,7 @@
       <c r="C43">
         <v>70000</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>4</v>
       </c>
     </row>
@@ -1026,7 +1039,7 @@
       <c r="C45">
         <v>13000</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>3</v>
       </c>
     </row>
@@ -1054,7 +1067,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,8 +1088,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1194,7 +1207,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,8 +1231,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>5</v>
